--- a/P0011/09_FICHAS/N3-FD-General.xlsx
+++ b/P0011/09_FICHAS/N3-FD-General.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28317"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0011\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0011/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637C5B0B-6EA3-4D18-9AD3-D8F41C8A1DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{637C5B0B-6EA3-4D18-9AD3-D8F41C8A1DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24C8DAD4-C207-4AB9-BCF3-333B19EFA7B0}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17280" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -78,7 +89,7 @@
     <t>P0011</t>
   </si>
   <si>
-    <t>PR0008</t>
+    <t>PR0009</t>
   </si>
   <si>
     <t>R0001</t>
@@ -93,16 +104,16 @@
     <t>Diagnóstico predial</t>
   </si>
   <si>
-    <t>Shape file, geometría tipo polígono,  de los predios de los municipios que tienen presencia en el área núcleo de la Mojana contienen información en su tabla de atributos información de : Número de predio, área del polígono, Afectación inundación, Clasificación porcentaje inundado</t>
-  </si>
-  <si>
-    <t>Feature class</t>
-  </si>
-  <si>
-    <t>.gdb</t>
-  </si>
-  <si>
-    <t>MEDIO SOCIOECONÓMICO</t>
+    <t>Shapefile, geometría tipo polígono de los predios de los municipios que tienen presencia en el área núcleo de La Mojana. Contienen información en su tabla de atributos sobre: número de predio, área del polígono, afectación inundación, clasificación porcentaje inundado, área de inundación, área de inundación periódica 200m, porcentaje del cuerpo de agua.</t>
+  </si>
+  <si>
+    <t>Geodatabase</t>
+  </si>
+  <si>
+    <t>gdb</t>
+  </si>
+  <si>
+    <t>Medio socioeconómico</t>
   </si>
   <si>
     <t>Polígono</t>
@@ -114,10 +125,10 @@
     <t>DESCONOCIDO</t>
   </si>
   <si>
-    <t>La geodatabase contiene 8 datasets que contienen información sensible, como datos de los propietarios, análisis jurídicos, encuestas, notariado y registros. adicionalmente tiene 10 feature classes en formato shapefile (.shp) que representan la geometría de predios, zonas geoeconómicas, zonas físicas, entre otras, utilizando geometría de polígonos.</t>
-  </si>
-  <si>
-    <t>diagnóstico predial,  geodatabase (GDB),  shapefiles (.shp),  datos geoespaciales,  información predial,  geometría de polígonos</t>
+    <t>La geodatabase contiene 8 datasets con información sensible, como datos de los propietarios, análisis jurídicos, encuestas, notariado y registros. Adicionalmente, tiene 10 feature classes en formato shapefile (.shp) que representan la geometría de predios, zonas geoeconómicas, zonas físicas, entre otras, utilizando geometría de polígonos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnóstico predial, geodatabase, GDB, shapefiles, datos geoespaciales, información predial, geometría, polígonos, predios inundación. </t>
   </si>
   <si>
     <t>R0002</t>
@@ -126,7 +137,10 @@
     <t>MOJANA —  PREDIOS</t>
   </si>
   <si>
-    <t>Shape file, geometría tipo polígono,  de los predios de los municipios que tienen presencia en el área núcleo de la Mojana contienen información en su tabla de atributos información de : Número de predio, área del polígono, Afectación inundación, Clasificación área de inundación, Cantidad de zonas físicas, cantidad zonas geoeconómicas, Tipo selección</t>
+    <t xml:space="preserve">Shapefile, geometría tipo polígono de los predios de los municipios que tienen presencia en el área núcleo de La Mojana. Contienen información en su tabla de atributos sobre: número de predio, área del polígono, afectación inundación, clasificación área de inundación, cantidad de zonas físicas, cantidad zonas geoeconómicas, tipo selección. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnóstico predial, geodatabase, GDB, shapefiles, datos geoespaciales, información predial, geometría, polígonos. </t>
   </si>
   <si>
     <t>R0003</t>
@@ -135,13 +149,19 @@
     <t>MOJANA —  ZONAS GEOECONOMICAS_U</t>
   </si>
   <si>
-    <t>Shape file, geometría tipo polígono,  de los predios de los municipios que tienen presencia en el área núcleo de la Mojana contienen información en su tabla de atributos información de : Tipo de avalúo</t>
+    <t>Shapefile, geometría tipo polígono de los predios de los municipios que tienen presencia en el área núcleo de La Mojana contienen información en su tabla de atributos sobre: tipo avalúo, número de predio, área del polígono, disponibilidad de agua, influencia vial y uso actual del suelo.</t>
+  </si>
+  <si>
+    <t>Diagnóstico predial, geodatabase, GDB, shapefiles, datos geoespaciales, información predial, geometría, polígonos, zonas geoeconómicas.</t>
   </si>
   <si>
     <t>R0004</t>
   </si>
   <si>
-    <t>MOJANA —  ZONAS GEOECONOMICAS_R</t>
+    <t>MOJANA-ZONAS GEOECONOMICAS-R</t>
+  </si>
+  <si>
+    <t>Shapefile, geometría tipo polígono de los predios de los municipios que tienen presencia en el área núcleo de La Mojana. Contienen información en su tabla de atributos sobre: Tipo de avalúo.</t>
   </si>
   <si>
     <t>R0005</t>
@@ -150,10 +170,10 @@
     <t>MOJANA —  ZONAS_FISICAS_U</t>
   </si>
   <si>
-    <t>Shape file, geometría tipo polígono,  de los predios de los municipios que tienen presencia en el área núcleo de la Mojana contienen información en su tabla de atributos información de : Tipo de avalúo, Influencias vías, servicios públicos, uso actual suelo</t>
-  </si>
-  <si>
-    <t>diagnóstico predial,  geodatabase (GDB),  shapefiles (.shp),  datos geoespaciales,  información predial,  geometría de polígonos, zona urbana, zona rural</t>
+    <t>Shapefile con geometría tipo polígono de los predios de los municipios que tienen presencia en el área núcleo de La Mojana. Contienen información en su tabla de atributos sobre: tipo de avalúo, influencias vías, servicios públicos, uso actual suelo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnóstico predial, geodatabase, GDB, shapefiles, datos geoespaciales, información predial, geometría, polígonos, zona urbana, zona rural, zonas físicas. </t>
   </si>
   <si>
     <t>R0006</t>
@@ -162,20 +182,26 @@
     <t>MOJANA —  ZONAS_FISICAS_R</t>
   </si>
   <si>
-    <t>Shape file, geometría tipo polígono,  de los predios de los municipios que tienen presencia en el área núcleo de la Mojana contienen información en su tabla de atributos información de : Tipo de avalúo, disponibilidad agua, uso actual suelo</t>
+    <t>Shapefile de geometría tipo polígono sobre los predios de los municipios que tienen presencia en el área núcleo de La Mojana. En su tabla de atributos contiene información del tipo de avalúo, disponibilidad agua y uso actual del suelo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,9 +239,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,12 +526,27 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J2" sqref="J2:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -579,7 +621,7 @@
       <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -604,7 +646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -629,7 +671,7 @@
       <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -651,10 +693,10 @@
         <v>29</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -662,10 +704,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
@@ -677,9 +719,9 @@
         <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -701,10 +743,10 @@
         <v>29</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -712,10 +754,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>20</v>
@@ -727,9 +769,9 @@
         <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -751,10 +793,10 @@
         <v>29</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -762,10 +804,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
@@ -777,9 +819,9 @@
         <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -801,10 +843,10 @@
         <v>29</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -812,10 +854,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
@@ -827,9 +869,9 @@
         <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -851,7 +893,7 @@
         <v>29</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/P0011/09_FICHAS/N3-FD-General.xlsx
+++ b/P0011/09_FICHAS/N3-FD-General.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28317"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0011/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{637C5B0B-6EA3-4D18-9AD3-D8F41C8A1DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24C8DAD4-C207-4AB9-BCF3-333B19EFA7B0}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{637C5B0B-6EA3-4D18-9AD3-D8F41C8A1DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C080F358-3B94-4193-8509-3944F0DC4648}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -110,9 +110,6 @@
     <t>Geodatabase</t>
   </si>
   <si>
-    <t>gdb</t>
-  </si>
-  <si>
     <t>Medio socioeconómico</t>
   </si>
   <si>
@@ -183,13 +180,16 @@
   </si>
   <si>
     <t>Shapefile de geometría tipo polígono sobre los predios de los municipios que tienen presencia en el área núcleo de La Mojana. En su tabla de atributos contiene información del tipo de avalúo, disponibilidad agua y uso actual del suelo.</t>
+  </si>
+  <si>
+    <t>FeatureClass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,10 +526,10 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
@@ -546,7 +546,7 @@
     <col min="15" max="15" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -625,28 +625,28 @@
         <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" ht="15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -654,10 +654,10 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
@@ -669,34 +669,34 @@
         <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="P3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -704,10 +704,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
@@ -719,34 +719,34 @@
         <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -754,10 +754,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>20</v>
@@ -769,34 +769,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -804,10 +804,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
@@ -819,34 +819,34 @@
         <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -854,10 +854,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
@@ -869,31 +869,31 @@
         <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/P0011/09_FICHAS/N3-FD-General.xlsx
+++ b/P0011/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28605"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0011/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{637C5B0B-6EA3-4D18-9AD3-D8F41C8A1DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C080F358-3B94-4193-8509-3944F0DC4648}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{637C5B0B-6EA3-4D18-9AD3-D8F41C8A1DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48CC932F-9CC1-4A78-ADEA-6DB031EDC5AD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
     <t>R0001</t>
   </si>
   <si>
-    <t>MOJANA —  PREDIOS INUNDACION</t>
+    <t>PREDIOS INUNDACION</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0011/02_PRODUCTOS/Geodatabases/Geodatabase final total consolidada la Mojana.gdb/MOJANA.gdb</t>
@@ -110,6 +110,9 @@
     <t>Geodatabase</t>
   </si>
   <si>
+    <t>FeatureClass</t>
+  </si>
+  <si>
     <t>Medio socioeconómico</t>
   </si>
   <si>
@@ -131,7 +134,7 @@
     <t>R0002</t>
   </si>
   <si>
-    <t>MOJANA —  PREDIOS</t>
+    <t>PREDIOS</t>
   </si>
   <si>
     <t xml:space="preserve">Shapefile, geometría tipo polígono de los predios de los municipios que tienen presencia en el área núcleo de La Mojana. Contienen información en su tabla de atributos sobre: número de predio, área del polígono, afectación inundación, clasificación área de inundación, cantidad de zonas físicas, cantidad zonas geoeconómicas, tipo selección. </t>
@@ -143,7 +146,7 @@
     <t>R0003</t>
   </si>
   <si>
-    <t>MOJANA —  ZONAS GEOECONOMICAS_U</t>
+    <t>ZONAS GEOECONOMICAS_U</t>
   </si>
   <si>
     <t>Shapefile, geometría tipo polígono de los predios de los municipios que tienen presencia en el área núcleo de La Mojana contienen información en su tabla de atributos sobre: tipo avalúo, número de predio, área del polígono, disponibilidad de agua, influencia vial y uso actual del suelo.</t>
@@ -155,7 +158,7 @@
     <t>R0004</t>
   </si>
   <si>
-    <t>MOJANA-ZONAS GEOECONOMICAS-R</t>
+    <t>ZONAS GEOECONOMICAS-R</t>
   </si>
   <si>
     <t>Shapefile, geometría tipo polígono de los predios de los municipios que tienen presencia en el área núcleo de La Mojana. Contienen información en su tabla de atributos sobre: Tipo de avalúo.</t>
@@ -164,7 +167,7 @@
     <t>R0005</t>
   </si>
   <si>
-    <t>MOJANA —  ZONAS_FISICAS_U</t>
+    <t>ZONAS_FISICAS_U</t>
   </si>
   <si>
     <t>Shapefile con geometría tipo polígono de los predios de los municipios que tienen presencia en el área núcleo de La Mojana. Contienen información en su tabla de atributos sobre: tipo de avalúo, influencias vías, servicios públicos, uso actual suelo.</t>
@@ -176,20 +179,17 @@
     <t>R0006</t>
   </si>
   <si>
-    <t>MOJANA —  ZONAS_FISICAS_R</t>
+    <t>ZONAS_FISICAS_R</t>
   </si>
   <si>
     <t>Shapefile de geometría tipo polígono sobre los predios de los municipios que tienen presencia en el área núcleo de La Mojana. En su tabla de atributos contiene información del tipo de avalúo, disponibilidad agua y uso actual del suelo.</t>
-  </si>
-  <si>
-    <t>FeatureClass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,10 +526,10 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
@@ -546,7 +546,7 @@
     <col min="15" max="15" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -625,28 +625,28 @@
         <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -654,10 +654,10 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
@@ -669,34 +669,34 @@
         <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -704,10 +704,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
@@ -719,34 +719,34 @@
         <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -754,10 +754,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>20</v>
@@ -769,34 +769,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -804,10 +804,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
@@ -819,34 +819,34 @@
         <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -854,10 +854,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
@@ -869,31 +869,31 @@
         <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
